--- a/testdata/SSG_SUBJECTS.xlsx
+++ b/testdata/SSG_SUBJECTS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B11C6F-C3B7-4F42-9ECE-C1B7DDD77321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5940E9F2-1546-431A-A38A-2B426AFCC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
   <si>
     <t>subject_id</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>number_of_groups</t>
-  </si>
-  <si>
-    <t>subject_length</t>
   </si>
   <si>
     <t>lesson_hours_id</t>
@@ -585,18 +582,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,14 +621,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.9">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -639,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -647,96 +641,87 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.9">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.9">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -744,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -752,26 +737,23 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -779,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -787,26 +769,23 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -814,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -822,26 +801,23 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.9">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -849,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -857,26 +833,23 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -884,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -892,26 +865,23 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -919,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -927,69 +897,63 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.9">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>11</v>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -997,61 +961,55 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.9">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1059,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -1067,26 +1025,23 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1094,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1102,26 +1057,23 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1129,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1137,26 +1089,23 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1164,7 +1113,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1172,26 +1121,23 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1199,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1207,26 +1153,23 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1234,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -1242,26 +1185,23 @@
       <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1269,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -1277,26 +1217,23 @@
       <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1304,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1312,26 +1249,23 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1339,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1347,26 +1281,23 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1374,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1382,26 +1313,23 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
-        <v>1</v>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1409,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1417,26 +1345,23 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="2">
-        <v>1</v>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1444,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1452,26 +1377,23 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
-        <v>1</v>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1479,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1487,26 +1409,23 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="2">
-        <v>1</v>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1514,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1522,26 +1441,23 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
-        <v>1</v>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1549,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1557,26 +1473,23 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
-        <v>1</v>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1584,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -1592,34 +1505,31 @@
       <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>12</v>
       </c>
-      <c r="C30" s="2">
-        <v>12</v>
+      <c r="C30" s="1">
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1627,26 +1537,23 @@
       <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
         <v>4</v>
       </c>
-      <c r="K30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="13.9">
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1654,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1662,26 +1569,23 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="2">
-        <v>1</v>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
         <v>4</v>
       </c>
-      <c r="K31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="13.9">
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1689,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1697,26 +1601,23 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="2">
-        <v>1</v>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="1">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1724,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1732,26 +1633,23 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="2">
-        <v>1</v>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1759,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -1767,26 +1665,23 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="2">
-        <v>1</v>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1794,7 +1689,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -1802,26 +1697,23 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="2">
-        <v>1</v>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1829,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -1837,26 +1729,23 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1864,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -1872,26 +1761,23 @@
       <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="1">
-        <v>3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1899,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1907,26 +1793,23 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="K38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1934,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -1942,26 +1825,23 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="2">
-        <v>1</v>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="1">
-        <v>3</v>
-      </c>
-      <c r="K39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1969,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1977,26 +1857,23 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="2">
-        <v>1</v>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2004,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -2012,26 +1889,23 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="2">
-        <v>1</v>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2039,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -2047,26 +1921,23 @@
       <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="2">
-        <v>1</v>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
         <v>4</v>
       </c>
-      <c r="K42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.9">
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2074,7 +1945,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2082,26 +1953,23 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="2">
-        <v>1</v>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="1">
-        <v>2</v>
-      </c>
-      <c r="K43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2109,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2117,26 +1985,23 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="2">
-        <v>1</v>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2144,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -2152,26 +2017,23 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="2">
-        <v>1</v>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="1">
-        <v>2</v>
-      </c>
-      <c r="K45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2179,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -2187,26 +2049,23 @@
       <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="1">
-        <v>2</v>
-      </c>
-      <c r="K46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2214,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -2222,34 +2081,31 @@
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="1">
-        <v>1</v>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="1">
-        <v>2</v>
-      </c>
-      <c r="K47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>13</v>
       </c>
-      <c r="C48" s="2">
-        <v>13</v>
+      <c r="C48" s="1">
+        <v>3</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -2257,26 +2113,23 @@
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="2">
-        <v>1</v>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="1">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2284,7 +2137,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -2292,26 +2145,23 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="2">
-        <v>1</v>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="1">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2319,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -2327,26 +2177,23 @@
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="2">
-        <v>1</v>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="1">
-        <v>2</v>
-      </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2354,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2362,26 +2209,23 @@
       <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="2">
-        <v>1</v>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="1">
-        <v>2</v>
-      </c>
-      <c r="K51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="13.9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2389,7 +2233,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -2397,23 +2241,20 @@
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="2">
-        <v>1</v>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="1">
-        <v>3</v>
-      </c>
-      <c r="K52" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
